--- a/Resume_rejected_candidates.xlsx
+++ b/Resume_rejected_candidates.xlsx
@@ -367,7 +367,9 @@
       <c r="B2">
         <v>300</v>
       </c>
-      <c r="C2" t="str"/>
+      <c r="C2" t="str">
+        <v>2024-01-02</v>
+      </c>
       <c r="D2" t="str">
         <v>perl</v>
       </c>
@@ -380,10 +382,10 @@
       <c r="G2" t="str">
         <v>umesh@gmail.com</v>
       </c>
-      <c r="H2">
-        <v>16</v>
-      </c>
-      <c r="I2">
+      <c r="H2" t="str">
+        <v>16</v>
+      </c>
+      <c r="I2" t="str">
         <v>15</v>
       </c>
       <c r="J2" t="str">
@@ -403,7 +405,9 @@
       <c r="B3">
         <v>302</v>
       </c>
-      <c r="C3" t="str"/>
+      <c r="C3" t="str">
+        <v>2024-01-02</v>
+      </c>
       <c r="D3" t="str">
         <v>perl</v>
       </c>
@@ -416,10 +420,10 @@
       <c r="G3" t="str">
         <v>umesh@gmail.com</v>
       </c>
-      <c r="H3">
-        <v>16</v>
-      </c>
-      <c r="I3">
+      <c r="H3" t="str">
+        <v>16</v>
+      </c>
+      <c r="I3" t="str">
         <v>15</v>
       </c>
       <c r="J3" t="str">
@@ -439,7 +443,9 @@
       <c r="B4">
         <v>303</v>
       </c>
-      <c r="C4" t="str"/>
+      <c r="C4" t="str">
+        <v>2024-01-02</v>
+      </c>
       <c r="D4" t="str">
         <v>perl</v>
       </c>
@@ -452,10 +458,10 @@
       <c r="G4" t="str">
         <v>sathiya@gmail.com</v>
       </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
-      <c r="I4">
+      <c r="H4" t="str">
+        <v>16</v>
+      </c>
+      <c r="I4" t="str">
         <v>15</v>
       </c>
       <c r="J4" t="str">
@@ -475,7 +481,9 @@
       <c r="B5">
         <v>308</v>
       </c>
-      <c r="C5" t="str"/>
+      <c r="C5" t="str">
+        <v>2024-01-02</v>
+      </c>
       <c r="D5" t="str">
         <v>perl</v>
       </c>
@@ -488,10 +496,10 @@
       <c r="G5" t="str">
         <v>tishya@gmail.com</v>
       </c>
-      <c r="H5">
-        <v>16</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="str">
+        <v>16</v>
+      </c>
+      <c r="I5" t="str">
         <v>15</v>
       </c>
       <c r="J5" t="str">
@@ -511,7 +519,9 @@
       <c r="B6">
         <v>309</v>
       </c>
-      <c r="C6" t="str"/>
+      <c r="C6" t="str">
+        <v>2024-01-02</v>
+      </c>
       <c r="D6" t="str">
         <v>perl</v>
       </c>
@@ -524,10 +534,10 @@
       <c r="G6" t="str">
         <v>tishya@gmail.com</v>
       </c>
-      <c r="H6">
-        <v>16</v>
-      </c>
-      <c r="I6">
+      <c r="H6" t="str">
+        <v>16</v>
+      </c>
+      <c r="I6" t="str">
         <v>15</v>
       </c>
       <c r="J6" t="str">
@@ -547,7 +557,9 @@
       <c r="B7">
         <v>310</v>
       </c>
-      <c r="C7" t="str"/>
+      <c r="C7" t="str">
+        <v>2024-01-02</v>
+      </c>
       <c r="D7" t="str">
         <v>perl</v>
       </c>
@@ -560,10 +572,10 @@
       <c r="G7" t="str">
         <v>tishya@gmail.com</v>
       </c>
-      <c r="H7">
-        <v>16</v>
-      </c>
-      <c r="I7">
+      <c r="H7" t="str">
+        <v>16</v>
+      </c>
+      <c r="I7" t="str">
         <v>15</v>
       </c>
       <c r="J7" t="str">
@@ -583,7 +595,9 @@
       <c r="B8">
         <v>311</v>
       </c>
-      <c r="C8" t="str"/>
+      <c r="C8" t="str">
+        <v>2024-01-02</v>
+      </c>
       <c r="D8" t="str">
         <v>perl</v>
       </c>
@@ -596,10 +610,10 @@
       <c r="G8" t="str">
         <v>tishya@gmail.com</v>
       </c>
-      <c r="H8">
-        <v>16</v>
-      </c>
-      <c r="I8">
+      <c r="H8" t="str">
+        <v>16</v>
+      </c>
+      <c r="I8" t="str">
         <v>15</v>
       </c>
       <c r="J8" t="str">
@@ -619,7 +633,9 @@
       <c r="B9">
         <v>313</v>
       </c>
-      <c r="C9" t="str"/>
+      <c r="C9" t="str">
+        <v>2024-01-02</v>
+      </c>
       <c r="D9" t="str">
         <v>perl</v>
       </c>
@@ -632,10 +648,10 @@
       <c r="G9" t="str">
         <v>tishya@gmail.com</v>
       </c>
-      <c r="H9">
-        <v>16</v>
-      </c>
-      <c r="I9">
+      <c r="H9" t="str">
+        <v>16</v>
+      </c>
+      <c r="I9" t="str">
         <v>15</v>
       </c>
       <c r="J9" t="str">
